--- a/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-09/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -420,10 +420,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>50887</v>
+        <v>51765</v>
       </c>
       <c r="D2" t="n">
-        <v>93565246</v>
+        <v>97807394</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -458,10 +458,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>123520</v>
+        <v>126053</v>
       </c>
       <c r="D3" t="n">
-        <v>255792503</v>
+        <v>272050207</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>44045</v>
+        <v>45229</v>
       </c>
       <c r="D4" t="n">
-        <v>107339751</v>
+        <v>116634186</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13295</v>
+        <v>13727</v>
       </c>
       <c r="D5" t="n">
-        <v>35653982</v>
+        <v>39245860</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4374</v>
+        <v>4622</v>
       </c>
       <c r="D6" t="n">
-        <v>15712667</v>
+        <v>17809211</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -610,10 +610,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>735</v>
+        <v>787</v>
       </c>
       <c r="D7" t="n">
-        <v>3445778</v>
+        <v>3876850</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D8" t="n">
-        <v>110989</v>
+        <v>161312</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52114</v>
+        <v>52814</v>
       </c>
       <c r="D12" t="n">
-        <v>78116921</v>
+        <v>80329922</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12969</v>
+        <v>13231</v>
       </c>
       <c r="D13" t="n">
-        <v>23871597</v>
+        <v>25223112</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -876,10 +876,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34883</v>
+        <v>35618</v>
       </c>
       <c r="D14" t="n">
-        <v>70540994</v>
+        <v>75317554</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -914,10 +914,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>11399</v>
+        <v>11686</v>
       </c>
       <c r="D15" t="n">
-        <v>26249065</v>
+        <v>28479486</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -952,10 +952,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3157</v>
+        <v>3262</v>
       </c>
       <c r="D16" t="n">
-        <v>7762121</v>
+        <v>8535818</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>936</v>
+        <v>999</v>
       </c>
       <c r="D17" t="n">
-        <v>3231152</v>
+        <v>3758674</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D18" t="n">
-        <v>634979</v>
+        <v>732305</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1066,10 +1066,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>32134</v>
+        <v>42134</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1104,10 +1104,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>12986</v>
+        <v>13189</v>
       </c>
       <c r="D20" t="n">
-        <v>19081654</v>
+        <v>19666140</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>18222</v>
+        <v>18685</v>
       </c>
       <c r="D21" t="n">
-        <v>34626454</v>
+        <v>37164002</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>43000</v>
+        <v>44158</v>
       </c>
       <c r="D22" t="n">
-        <v>89731797</v>
+        <v>97433134</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1218,10 +1218,10 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>14676</v>
+        <v>15185</v>
       </c>
       <c r="D23" t="n">
-        <v>35658213</v>
+        <v>39479604</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1256,10 +1256,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4136</v>
+        <v>4340</v>
       </c>
       <c r="D24" t="n">
-        <v>10743705</v>
+        <v>12359708</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1294,10 +1294,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1154</v>
+        <v>1249</v>
       </c>
       <c r="D25" t="n">
-        <v>3639829</v>
+        <v>4300824</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D26" t="n">
-        <v>625285</v>
+        <v>754450</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1370,10 +1370,10 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>14629</v>
+        <v>14889</v>
       </c>
       <c r="D27" t="n">
-        <v>21396519</v>
+        <v>22236181</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1408,10 +1408,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10421</v>
+        <v>10575</v>
       </c>
       <c r="D28" t="n">
-        <v>19551308</v>
+        <v>20380204</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30155</v>
+        <v>30747</v>
       </c>
       <c r="D29" t="n">
-        <v>61184259</v>
+        <v>64836871</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>10719</v>
+        <v>10952</v>
       </c>
       <c r="D30" t="n">
-        <v>24976193</v>
+        <v>26781036</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2844</v>
+        <v>2914</v>
       </c>
       <c r="D31" t="n">
-        <v>6893026</v>
+        <v>7464498</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1560,10 +1560,10 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>785</v>
+        <v>838</v>
       </c>
       <c r="D32" t="n">
-        <v>2574611</v>
+        <v>3006911</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D33" t="n">
-        <v>398105</v>
+        <v>437268</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10602</v>
+        <v>10755</v>
       </c>
       <c r="D35" t="n">
-        <v>15644430</v>
+        <v>16122967</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4508</v>
+        <v>4580</v>
       </c>
       <c r="D36" t="n">
-        <v>8494949</v>
+        <v>8923721</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1750,10 +1750,10 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>10656</v>
+        <v>10878</v>
       </c>
       <c r="D37" t="n">
-        <v>21539107</v>
+        <v>22958130</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4305</v>
+        <v>4418</v>
       </c>
       <c r="D38" t="n">
-        <v>10062914</v>
+        <v>10925008</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1826,10 +1826,10 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1137</v>
+        <v>1166</v>
       </c>
       <c r="D39" t="n">
-        <v>2864890</v>
+        <v>3099720</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="D40" t="n">
-        <v>1140173</v>
+        <v>1302269</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1902,10 +1902,10 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D41" t="n">
-        <v>183575</v>
+        <v>215075</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3238</v>
+        <v>3275</v>
       </c>
       <c r="D42" t="n">
-        <v>4746947</v>
+        <v>4851193</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>22933</v>
+        <v>23411</v>
       </c>
       <c r="D43" t="n">
-        <v>42062886</v>
+        <v>44342595</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2016,10 +2016,10 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>67867</v>
+        <v>69406</v>
       </c>
       <c r="D44" t="n">
-        <v>136986892</v>
+        <v>146665799</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -2054,10 +2054,10 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>25966</v>
+        <v>26711</v>
       </c>
       <c r="D45" t="n">
-        <v>60103548</v>
+        <v>65552939</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2092,10 +2092,10 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8249</v>
+        <v>8567</v>
       </c>
       <c r="D46" t="n">
-        <v>20357476</v>
+        <v>22814692</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2130,10 +2130,10 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2596</v>
+        <v>2784</v>
       </c>
       <c r="D47" t="n">
-        <v>8498231</v>
+        <v>9975766</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -2168,10 +2168,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="D48" t="n">
-        <v>1665615</v>
+        <v>1961882</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D49" t="n">
-        <v>46050</v>
+        <v>53434</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2282,10 +2282,10 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>22024</v>
+        <v>22440</v>
       </c>
       <c r="D51" t="n">
-        <v>34474470</v>
+        <v>35977683</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -2320,10 +2320,10 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2609</v>
+        <v>2620</v>
       </c>
       <c r="D52" t="n">
-        <v>4088381</v>
+        <v>4120133</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -2358,10 +2358,10 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8747</v>
+        <v>8781</v>
       </c>
       <c r="D53" t="n">
-        <v>13969445</v>
+        <v>14140270</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2947</v>
+        <v>2959</v>
       </c>
       <c r="D54" t="n">
-        <v>4992986</v>
+        <v>5050584</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="D55" t="n">
-        <v>1749060</v>
+        <v>1790060</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -2472,10 +2472,10 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D56" t="n">
-        <v>563999</v>
+        <v>575499</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" t="n">
-        <v>118660</v>
+        <v>128660</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -2586,10 +2586,10 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8781</v>
+        <v>8846</v>
       </c>
       <c r="D59" t="n">
-        <v>12691748</v>
+        <v>12845236</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="D60" t="n">
-        <v>3839015</v>
+        <v>3848135</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2662,10 +2662,10 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4199</v>
+        <v>4211</v>
       </c>
       <c r="D61" t="n">
-        <v>8906566</v>
+        <v>8957651</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1676</v>
+        <v>1681</v>
       </c>
       <c r="D62" t="n">
-        <v>3690324</v>
+        <v>3722599</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2738,10 +2738,10 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D63" t="n">
-        <v>1200012</v>
+        <v>1210012</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2776,10 +2776,10 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D64" t="n">
-        <v>456987</v>
+        <v>458487</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2739</v>
+        <v>2749</v>
       </c>
       <c r="D66" t="n">
-        <v>5350230</v>
+        <v>5372023</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2890,10 +2890,10 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>21018</v>
+        <v>21378</v>
       </c>
       <c r="D67" t="n">
-        <v>38423880</v>
+        <v>40058488</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2928,10 +2928,10 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>60771</v>
+        <v>62005</v>
       </c>
       <c r="D68" t="n">
-        <v>123911710</v>
+        <v>131595466</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>21960</v>
+        <v>22533</v>
       </c>
       <c r="D69" t="n">
-        <v>52312742</v>
+        <v>56754314</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -3004,10 +3004,10 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6723</v>
+        <v>6924</v>
       </c>
       <c r="D70" t="n">
-        <v>16861887</v>
+        <v>18484252</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -3042,10 +3042,10 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1997</v>
+        <v>2114</v>
       </c>
       <c r="D71" t="n">
-        <v>6634977</v>
+        <v>7546628</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -3080,10 +3080,10 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
-        <v>1496402</v>
+        <v>1693398</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>19325</v>
+        <v>19634</v>
       </c>
       <c r="D76" t="n">
-        <v>28284762</v>
+        <v>29155351</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>77016</v>
+        <v>78054</v>
       </c>
       <c r="D77" t="n">
-        <v>146541025</v>
+        <v>151801114</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -3308,10 +3308,10 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>208624</v>
+        <v>211808</v>
       </c>
       <c r="D78" t="n">
-        <v>424926699</v>
+        <v>444350102</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -3346,10 +3346,10 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>92651</v>
+        <v>94598</v>
       </c>
       <c r="D79" t="n">
-        <v>222101664</v>
+        <v>237258487</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>32911</v>
+        <v>33863</v>
       </c>
       <c r="D80" t="n">
-        <v>92510718</v>
+        <v>100584369</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -3422,10 +3422,10 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>11146</v>
+        <v>11664</v>
       </c>
       <c r="D81" t="n">
-        <v>41629170</v>
+        <v>45952581</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1793</v>
+        <v>1994</v>
       </c>
       <c r="D82" t="n">
-        <v>10166722</v>
+        <v>11781149</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -3498,10 +3498,10 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D83" t="n">
-        <v>566964</v>
+        <v>641464</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -3650,10 +3650,10 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="n">
-        <v>18424</v>
+        <v>27848</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -3688,10 +3688,10 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>73591</v>
+        <v>74395</v>
       </c>
       <c r="D88" t="n">
-        <v>112300187</v>
+        <v>114827563</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5472</v>
+        <v>5485</v>
       </c>
       <c r="D89" t="n">
-        <v>8299375</v>
+        <v>8352200</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>13296</v>
+        <v>13328</v>
       </c>
       <c r="D90" t="n">
-        <v>20561307</v>
+        <v>20686258</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -3802,10 +3802,10 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4300</v>
+        <v>4309</v>
       </c>
       <c r="D91" t="n">
-        <v>6767849</v>
+        <v>6812624</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -3840,10 +3840,10 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="D92" t="n">
-        <v>2461723</v>
+        <v>2491723</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -3878,10 +3878,10 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D93" t="n">
-        <v>806012</v>
+        <v>846012</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6186</v>
+        <v>6216</v>
       </c>
       <c r="D96" t="n">
-        <v>8496468</v>
+        <v>8548288</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -4030,10 +4030,10 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2173</v>
+        <v>2190</v>
       </c>
       <c r="D97" t="n">
-        <v>3812640</v>
+        <v>3884304</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -4068,10 +4068,10 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6859</v>
+        <v>6963</v>
       </c>
       <c r="D98" t="n">
-        <v>12573138</v>
+        <v>13124919</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -4106,10 +4106,10 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2461</v>
+        <v>2502</v>
       </c>
       <c r="D99" t="n">
-        <v>4974196</v>
+        <v>5276045</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -4144,10 +4144,10 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>911</v>
+        <v>921</v>
       </c>
       <c r="D100" t="n">
-        <v>1886195</v>
+        <v>1966845</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -4182,10 +4182,10 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D101" t="n">
-        <v>779620</v>
+        <v>849943</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -4220,10 +4220,10 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
-        <v>152164</v>
+        <v>183664</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -4296,10 +4296,10 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>4562</v>
+        <v>4609</v>
       </c>
       <c r="D104" t="n">
-        <v>6503908</v>
+        <v>6607320</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="D105" t="n">
-        <v>2198976</v>
+        <v>2235306</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -4372,10 +4372,10 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="D106" t="n">
-        <v>1632578</v>
+        <v>1645078</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -4410,10 +4410,10 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D107" t="n">
-        <v>557192</v>
+        <v>561268</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>14988</v>
+        <v>15270</v>
       </c>
       <c r="D111" t="n">
-        <v>28694967</v>
+        <v>30265859</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -4600,10 +4600,10 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>39423</v>
+        <v>40199</v>
       </c>
       <c r="D112" t="n">
-        <v>81661479</v>
+        <v>86735916</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -4638,10 +4638,10 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>13731</v>
+        <v>14093</v>
       </c>
       <c r="D113" t="n">
-        <v>32511257</v>
+        <v>35305321</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>4073</v>
+        <v>4220</v>
       </c>
       <c r="D114" t="n">
-        <v>10513831</v>
+        <v>11751625</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1126</v>
+        <v>1213</v>
       </c>
       <c r="D115" t="n">
-        <v>3798937</v>
+        <v>4503908</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -4752,10 +4752,10 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="D116" t="n">
-        <v>985103</v>
+        <v>1168491</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -4866,10 +4866,10 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>12313</v>
+        <v>12481</v>
       </c>
       <c r="D119" t="n">
-        <v>17916680</v>
+        <v>18425180</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -4904,10 +4904,10 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>40890</v>
+        <v>41657</v>
       </c>
       <c r="D120" t="n">
-        <v>75048887</v>
+        <v>79040521</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -4942,10 +4942,10 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>87745</v>
+        <v>89573</v>
       </c>
       <c r="D121" t="n">
-        <v>176224896</v>
+        <v>187881441</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -4980,10 +4980,10 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>29258</v>
+        <v>30049</v>
       </c>
       <c r="D122" t="n">
-        <v>67319951</v>
+        <v>73233261</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -5018,10 +5018,10 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>8894</v>
+        <v>9222</v>
       </c>
       <c r="D123" t="n">
-        <v>22289369</v>
+        <v>24814953</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -5056,10 +5056,10 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2493</v>
+        <v>2679</v>
       </c>
       <c r="D124" t="n">
-        <v>8152268</v>
+        <v>9601046</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>446</v>
+        <v>516</v>
       </c>
       <c r="D125" t="n">
-        <v>1907311</v>
+        <v>2376526</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -5246,10 +5246,10 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>32116</v>
+        <v>32593</v>
       </c>
       <c r="D129" t="n">
-        <v>47158084</v>
+        <v>48648271</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -5284,10 +5284,10 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>49126</v>
+        <v>49999</v>
       </c>
       <c r="D130" t="n">
-        <v>92083781</v>
+        <v>96587382</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -5322,10 +5322,10 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>102826</v>
+        <v>104894</v>
       </c>
       <c r="D131" t="n">
-        <v>206156216</v>
+        <v>218969864</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -5360,10 +5360,10 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>32844</v>
+        <v>33589</v>
       </c>
       <c r="D132" t="n">
-        <v>77238777</v>
+        <v>83050613</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -5398,10 +5398,10 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>9455</v>
+        <v>9738</v>
       </c>
       <c r="D133" t="n">
-        <v>24227512</v>
+        <v>26468457</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -5436,10 +5436,10 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2683</v>
+        <v>2833</v>
       </c>
       <c r="D134" t="n">
-        <v>9038205</v>
+        <v>10234043</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -5474,10 +5474,10 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="D135" t="n">
-        <v>1641173</v>
+        <v>1955531</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D136" t="n">
-        <v>140748</v>
+        <v>150748</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -5550,10 +5550,10 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D137" t="n">
-        <v>4500</v>
+        <v>6000</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -5626,10 +5626,10 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>39938</v>
+        <v>40471</v>
       </c>
       <c r="D139" t="n">
-        <v>57648893</v>
+        <v>59146758</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -5664,10 +5664,10 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>18067</v>
+        <v>18410</v>
       </c>
       <c r="D140" t="n">
-        <v>33849163</v>
+        <v>35705838</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -5702,10 +5702,10 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>43702</v>
+        <v>44717</v>
       </c>
       <c r="D141" t="n">
-        <v>91087696</v>
+        <v>97733945</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -5740,10 +5740,10 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>16125</v>
+        <v>16607</v>
       </c>
       <c r="D142" t="n">
-        <v>38228492</v>
+        <v>41821354</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -5778,10 +5778,10 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>4485</v>
+        <v>4657</v>
       </c>
       <c r="D143" t="n">
-        <v>11419899</v>
+        <v>12717927</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -5816,10 +5816,10 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1203</v>
+        <v>1300</v>
       </c>
       <c r="D144" t="n">
-        <v>4119919</v>
+        <v>4881191</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -5854,10 +5854,10 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="D145" t="n">
-        <v>1016667</v>
+        <v>1242973</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -6006,10 +6006,10 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>13559</v>
+        <v>13756</v>
       </c>
       <c r="D149" t="n">
-        <v>20129102</v>
+        <v>20792785</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>48624</v>
+        <v>49419</v>
       </c>
       <c r="D150" t="n">
-        <v>92180868</v>
+        <v>96342771</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>112901</v>
+        <v>115094</v>
       </c>
       <c r="D151" t="n">
-        <v>234076537</v>
+        <v>247903547</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -6120,10 +6120,10 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>35565</v>
+        <v>36440</v>
       </c>
       <c r="D152" t="n">
-        <v>88385991</v>
+        <v>95302329</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -6158,10 +6158,10 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>10338</v>
+        <v>10704</v>
       </c>
       <c r="D153" t="n">
-        <v>29405797</v>
+        <v>32436513</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3432</v>
+        <v>3615</v>
       </c>
       <c r="D154" t="n">
-        <v>12945378</v>
+        <v>14495703</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -6234,10 +6234,10 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>558</v>
+        <v>628</v>
       </c>
       <c r="D155" t="n">
-        <v>2890733</v>
+        <v>3467888</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -6272,10 +6272,10 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D156" t="n">
-        <v>145983</v>
+        <v>155983</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -6310,10 +6310,10 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>37304</v>
+        <v>37828</v>
       </c>
       <c r="D157" t="n">
-        <v>55804735</v>
+        <v>57379805</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
